--- a/medicine/Enfance/Philippe_Corentin/Philippe_Corentin.xlsx
+++ b/medicine/Enfance/Philippe_Corentin/Philippe_Corentin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Corentin, pseudonyme de Philippe Le Saux, né le 16 février 1936 à Boulogne-Billancourt et mort le 7 novembre 2022 à Saint-Lubin-de-la-Haye[1], est un auteur et illustrateur français pour la jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Corentin, pseudonyme de Philippe Le Saux, né le 16 février 1936 à Boulogne-Billancourt et mort le 7 novembre 2022 à Saint-Lubin-de-la-Haye, est un auteur et illustrateur français pour la jeunesse.
 </t>
         </is>
       </c>
@@ -511,12 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une enfance à Quimper, Philippe Corentin publie des dessins en 1968 dans une revue, L'Enragé, et se lance dans le dessin d'humour. Il commence par illustrer ses nouvelles puis devient  auteur - illustrateur jeunesse.
 Il se sert également de l'humour dans ses albums jeunesse, dans l'intention d'aider à surmonter les angoisses, comme la peur du loup (Patatras, 1994), la peur dans le noir (Papa !, 1995), les relations avec les autres (Mademoiselle tout-à-l'envers, 1989 ; Pipioli la terreur, 1990)…
-Famille
-Philippe Corentin est le frère jumeau d'Alain Le Saux[2].
 </t>
         </is>
       </c>
@@ -542,12 +554,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Corentin est le frère jumeau d'Alain Le Saux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Philippe_Corentin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Corentin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Années 1970 et 1980
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Années 1970 et 1980</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Conte no 3, texte de Eugène Ionesco, Harlin Quist, 1971 Réédité en 1976 : J.-P. Delarge ; rééd. Gallimard, 1985
 Ah ! si j'étais un monstre, texte de Marie-Raymond Farré, Hachette, 1979
 Le Loup blanc : conte à régler, Hachette, 1980
@@ -564,7 +619,43 @@
 La Flèche du Parthe : ou comment suivre à la lettre les mots grecs et latins de notre langue, texte de Catherine Eugène, Hatier, 1989
 Le Père Noël et les fourmis, L’École des loisirs, 1989
 Le Chien qui voulait être chat, L’École des loisirs, 1989
-Années 1990
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Philippe_Corentin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Corentin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Années 1990</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 365 devinettes, énigmes et menteries, réunies et présentées par Muriel Bloch, Hatier, 1990
 L'Afrique de Zigomar, L’École des loisirs, 1990 Prix Sorcières 1991 catégorie Album
  Pipioli la terreur, L’École des loisirs, 1990
@@ -579,10 +670,46 @@
 L'Ogre, le loup, la petite fille et le gâteau, L’École des loisirs, 1995 Prix Sorcières 1996 catégorie Album
 Papa, maman, ma sœur et moi, L’École des loisirs, 1996
 Les Deux Goinfres, L’École des loisirs, 1997
-Mademoiselle Sauve-qui-peut, L’École des loisirs, 1996  Grand Prix du Livre Jeunesse 1997[3] - « Liste d'Honneur » 1998 de l'IBBY[3] 
+Mademoiselle Sauve-qui-peut, L’École des loisirs, 1996  Grand Prix du Livre Jeunesse 1997 - « Liste d'Honneur » 1998 de l'IBBY 
 Tête à claques, L’École des loisirs, 1998
 L'Arbre en bois, L’École des loisirs, 1999
-Années 2000 et 2010
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Philippe_Corentin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Corentin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Années 2000 et 2010</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Machin chouette, L’École des loisirs, 2002
 Zzzz...zzzz... : d'après une histoire vraie, L’École des loisirs, 2007
 N'oublie pas de te laver les dents !, L’École des loisirs, 2009
@@ -592,39 +719,41 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Philippe_Corentin</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Philippe_Corentin</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Quelques prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Prix Sorcières 1991 catégorie Album pour L'Afrique de Zigomar
 Prix Sorcières 1996 catégorie Album pour L'Ogre, le loup, la petite fille et le gâteau
  Kinderbuchpreis des Landes Nordrhein-Westfalen (de) 1996 pour Plouf !
-Grand Prix du Livre de Jeunesse 1997[3] décerné par la Société des Gens de Lettres pour Mademoiselle Sauve-qui-peut
-(international) « Liste d'Honneur » 1998[3] de l'IBBY pour Mademoiselle Sauve-qui-peut
+Grand Prix du Livre de Jeunesse 1997 décerné par la Société des Gens de Lettres pour Mademoiselle Sauve-qui-peut
+(international) « Liste d'Honneur » 1998 de l'IBBY pour Mademoiselle Sauve-qui-peut
  Schnabelsteherpreis (de) 1998 pour Papa !
-(international) « Honour List » 1998[4] de l' IBBY pour Mademoiselle Sauve-qui-peut</t>
+(international) « Honour List » 1998 de l' IBBY pour Mademoiselle Sauve-qui-peut</t>
         </is>
       </c>
     </row>
